--- a/config_9.7/item_config.xlsx
+++ b/config_9.7/item_config.xlsx
@@ -3702,10 +3702,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_zp1_cjq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>抽奖礼包抽奖券</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -3719,6 +3715,10 @@
   </si>
   <si>
     <t>抽奖礼包抽奖券_cjj</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_cjq_cjj</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4324,8 +4324,8 @@
   <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J326" sqref="J326"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F288" sqref="F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="44" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="G288" s="8">
         <v>0</v>
@@ -14100,10 +14100,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J288" s="44" t="s">
         <v>1082</v>
-      </c>
-      <c r="J288" s="44" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="3" customFormat="1" ht="16.5">
@@ -15376,10 +15376,10 @@
         <v>33</v>
       </c>
       <c r="I326" s="44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J326" s="44" t="s">
         <v>1084</v>
-      </c>
-      <c r="J326" s="44" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="327" spans="1:12" customFormat="1">
